--- a/GREPore-seq_Template.us.xlsx
+++ b/GREPore-seq_Template.us.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a321a14eff61486d/LSA_IN_LAB/GitHub_repo/GREPore-seq/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6cc03996d788d10e/XBLabEditable/DeepSeq/NanoporeData/AmpBr-Info/分析模板/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="209" documentId="11_AD4DA82427541F7ACA7EB8C7F84D1CDE6BE8DE17" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EFFB3513-DA54-4193-8CDF-2A4F4EEDFDE9}"/>
+  <xr:revisionPtr revIDLastSave="210" documentId="11_AD4DA82427541F7ACA7EB8C7F84D1CDE6BE8DE17" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6E1CE067-ABE1-477C-95F0-C907C2767038}"/>
   <bookViews>
-    <workbookView xWindow="5235" yWindow="21480" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1815" yWindow="1380" windowWidth="24885" windowHeight="16050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RefInfo" sheetId="2" r:id="rId1"/>
@@ -1426,8 +1426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E6BD156-A4CE-4927-9F1A-802A2FA8AECF}">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1506,7 +1506,7 @@
     </row>
     <row r="6" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C6" s="1" t="str">
-        <f>CONCATENATE(A6,": ",CHAR(10),"  sequence: ",B6)</f>
+        <f>CONCATENATE(A6,": ",CHAR(10),"  sequence: ",CLEAN(B6))</f>
         <v xml:space="preserve">: 
   sequence: </v>
       </c>
@@ -1522,7 +1522,8 @@
     <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1530,8 +1531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/GREPore-seq_Template.us.xlsx
+++ b/GREPore-seq_Template.us.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6cc03996d788d10e/XBLabEditable/DeepSeq/NanoporeData/AmpBr-Info/分析模板/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a321a14eff61486d/LSA_IN_LAB/GitHub_repo/GREPore-seq/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="210" documentId="11_AD4DA82427541F7ACA7EB8C7F84D1CDE6BE8DE17" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6E1CE067-ABE1-477C-95F0-C907C2767038}"/>
+  <xr:revisionPtr revIDLastSave="212" documentId="11_AD4DA82427541F7ACA7EB8C7F84D1CDE6BE8DE17" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A557570E-3AD9-4028-9C78-65F56F1B1853}"/>
   <bookViews>
-    <workbookView xWindow="1815" yWindow="1380" windowWidth="24885" windowHeight="16050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4680" yWindow="4680" windowWidth="27930" windowHeight="15885" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RefInfo" sheetId="2" r:id="rId1"/>
@@ -1426,7 +1426,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E6BD156-A4CE-4927-9F1A-802A2FA8AECF}">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -1506,9 +1506,10 @@
     </row>
     <row r="6" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C6" s="1" t="str">
-        <f>CONCATENATE(A6,": ",CHAR(10),"  sequence: ",CLEAN(B6))</f>
+        <f>CONCATENATE(A6,": ",CHAR(10),"  sequence: ",CLEAN(B6),CHAR(10))</f>
         <v xml:space="preserve">: 
-  sequence: </v>
+  sequence: 
+</v>
       </c>
     </row>
   </sheetData>
@@ -1531,8 +1532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V7"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1664,7 +1665,7 @@
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="J7" s="1" t="str">
-        <f>CONCATENATE(A7,": ",CHAR(10),"  reference_id: ",B7,CHAR(10),"  left_150bp: ",C7,CHAR(10),"  right_150bp: ",D7,CHAR(10),"  BCprimer_F: ",E7,CHAR(10),"  BClen_F: ",F7,CHAR(10),"#optional",CHAR(10),"  BCprimer_R: ",G7,CHAR(10),"  BClen_R: ",H7,CHAR(10),"  unique_sequence: ",I7)</f>
+        <f>CONCATENATE(A7,": ",CHAR(10),"  reference_id: ",B7,CHAR(10),"  left_150bp: ",C7,CHAR(10),"  right_150bp: ",D7,CHAR(10),"  BCprimer_F: ",E7,CHAR(10),"  BClen_F: ",F7,CHAR(10),"#optional",CHAR(10),"  BCprimer_R: ",G7,CHAR(10),"  BClen_R: ",H7,CHAR(10),"  unique_sequence: ",I7,CHAR(10))</f>
         <v xml:space="preserve">: 
   reference_id: 
   left_150bp: 
@@ -1674,7 +1675,8 @@
 #optional
   BCprimer_R: 
   BClen_R: 
-  unique_sequence: </v>
+  unique_sequence: 
+</v>
       </c>
     </row>
   </sheetData>

--- a/GREPore-seq_Template.us.xlsx
+++ b/GREPore-seq_Template.us.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="212" documentId="11_AD4DA82427541F7ACA7EB8C7F84D1CDE6BE8DE17" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A557570E-3AD9-4028-9C78-65F56F1B1853}"/>
   <bookViews>
-    <workbookView xWindow="4680" yWindow="4680" windowWidth="27930" windowHeight="15885" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2550" yWindow="3330" windowWidth="19065" windowHeight="12915" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RefInfo" sheetId="2" r:id="rId1"/>
@@ -1533,7 +1533,7 @@
   <dimension ref="A1:V7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/GREPore-seq_Template.us.xlsx
+++ b/GREPore-seq_Template.us.xlsx
@@ -5,18 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a321a14eff61486d/LSA_IN_LAB/GitHub_repo/GREPore-seq/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\XBLabEditable\DeepSeq\NanoporeData\AmpBr-Info\分析模板\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="212" documentId="11_AD4DA82427541F7ACA7EB8C7F84D1CDE6BE8DE17" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A557570E-3AD9-4028-9C78-65F56F1B1853}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{420E8118-BDDF-460E-BEF5-6A21A526BA7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2550" yWindow="3330" windowWidth="19065" windowHeight="12915" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3390" yWindow="4485" windowWidth="27990" windowHeight="15885" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RefInfo" sheetId="2" r:id="rId1"/>
     <sheet name="DemultiplexInfo" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -649,57 +649,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
   <si>
-    <t>reference_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>left_150bp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>right_150bp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>unique_sequence</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>YAML</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>BCprimer_R</t>
-  </si>
-  <si>
-    <t>BClen_R</t>
-  </si>
-  <si>
-    <t>BCprimer_F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BClen_F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sample_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sequence</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GREEN fields are mandatory. Your submission will fail if any mandatory fields are not completed.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GREY fields are optional. Leave optional fields empty if no information is available.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Orange field is a formula result that can be copied and pasted directly into the yaml file.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -725,16 +675,66 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>GREY fields are optional. Leave optional fields empty if no information is available.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">           2. Be careful when you use the Excel "AutoFill" function to prevent unnecessary filling errors (e.g. dates or numbering).</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Orange field is a formula result that can be copied and pasted directly into the yaml file.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">           3. To save you time, please check your results carefully before pasting them into yaml.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>reference_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sequence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YAML</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <t>BLUE fields require for PCR product data only</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sample_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>left_150bp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>right_150bp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BCprimer_F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BClen_F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BCprimer_R</t>
+  </si>
+  <si>
+    <t>BClen_R</t>
+  </si>
+  <si>
+    <t>unique_sequence</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1427,7 +1427,7 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1440,7 +1440,7 @@
   <sheetData>
     <row r="1" spans="1:12" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="26" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1448,7 +1448,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="3" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="H1" s="4"/>
       <c r="I1" s="5"/>
@@ -1458,7 +1458,7 @@
     </row>
     <row r="2" spans="1:12" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -1466,7 +1466,7 @@
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
       <c r="G2" s="9" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="H2" s="10"/>
       <c r="I2" s="11"/>
@@ -1476,7 +1476,7 @@
     </row>
     <row r="3" spans="1:12" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
@@ -1484,7 +1484,7 @@
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
       <c r="G3" s="18" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="H3" s="19"/>
       <c r="I3" s="19"/>
@@ -1495,20 +1495,20 @@
     <row r="4" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="1:12" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C6" s="1" t="str">
-        <f>CONCATENATE(A6,": ",CHAR(10),"  sequence: ",CLEAN(B6),CHAR(10))</f>
+        <f>CONCATENATE(A6,": ",CHAR(10),"  sequence: '",CLEAN(B6),"'",CHAR(10))</f>
         <v xml:space="preserve">: 
-  sequence: 
+  sequence: ''
 </v>
       </c>
     </row>
@@ -1533,7 +1533,7 @@
   <dimension ref="A1:V7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1555,7 +1555,7 @@
   <sheetData>
     <row r="1" spans="1:22" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="26" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1563,7 +1563,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="3" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="H1" s="4"/>
       <c r="I1" s="5"/>
@@ -1573,7 +1573,7 @@
     </row>
     <row r="2" spans="1:22" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B2" s="17"/>
       <c r="C2" s="17"/>
@@ -1581,7 +1581,7 @@
       <c r="E2" s="17"/>
       <c r="F2" s="17"/>
       <c r="G2" s="9" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="H2" s="10"/>
       <c r="I2" s="11"/>
@@ -1591,7 +1591,7 @@
     </row>
     <row r="3" spans="1:22" s="22" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
@@ -1599,7 +1599,7 @@
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
       <c r="G3" s="18" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="H3" s="19"/>
       <c r="I3" s="19"/>
@@ -1617,7 +1617,7 @@
     </row>
     <row r="4" spans="1:22" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B4" s="13"/>
       <c r="C4" s="13"/>
@@ -1633,49 +1633,49 @@
     </row>
     <row r="6" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="F6" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="16" t="s">
         <v>8</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="I6" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="J6" s="16" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="J7" s="1" t="str">
-        <f>CONCATENATE(A7,": ",CHAR(10),"  reference_id: ",B7,CHAR(10),"  left_150bp: ",C7,CHAR(10),"  right_150bp: ",D7,CHAR(10),"  BCprimer_F: ",E7,CHAR(10),"  BClen_F: ",F7,CHAR(10),"#optional",CHAR(10),"  BCprimer_R: ",G7,CHAR(10),"  BClen_R: ",H7,CHAR(10),"  unique_sequence: ",I7,CHAR(10))</f>
+        <f>CONCATENATE(A7,": ",CHAR(10),"  reference_id: '",B7,"'",CHAR(10),"  left_150bp: '",C7,"'",CHAR(10),"  right_150bp: '",D7,"'",CHAR(10),"  BCprimer_F: '",E7,"'",CHAR(10),"  BClen_F: ",F7,CHAR(10),"#optional",CHAR(10),"  BCprimer_R: '",G7,"'",CHAR(10),"  BClen_R: ",H7,CHAR(10),"  unique_sequence: '",I7,"'",CHAR(10))</f>
         <v xml:space="preserve">: 
-  reference_id: 
-  left_150bp: 
-  right_150bp: 
-  BCprimer_F: 
+  reference_id: ''
+  left_150bp: ''
+  right_150bp: ''
+  BCprimer_F: ''
   BClen_F: 
 #optional
-  BCprimer_R: 
+  BCprimer_R: ''
   BClen_R: 
-  unique_sequence: 
+  unique_sequence: ''
 </v>
       </c>
     </row>

--- a/GREPore-seq_Template.us.xlsx
+++ b/GREPore-seq_Template.us.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\XBLabEditable\DeepSeq\NanoporeData\AmpBr-Info\分析模板\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6cc03996d788d10e/XBLabEditable/DeepSeq/NanoporeData/AmpBr-Info/分析模板/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{420E8118-BDDF-460E-BEF5-6A21A526BA7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{420E8118-BDDF-460E-BEF5-6A21A526BA7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3304160D-E6B3-4414-A61A-C9B0F6972811}"/>
   <bookViews>
-    <workbookView xWindow="3390" yWindow="4485" windowWidth="27990" windowHeight="15885" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24750" yWindow="4620" windowWidth="22200" windowHeight="14745" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RefInfo" sheetId="2" r:id="rId1"/>
@@ -317,7 +317,7 @@
             <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
-          <t>Used to fill in the 150bp sequence at the left end of the sequenced sample.</t>
+          <t>Used to fill in the sequence at the left end of the sequenced sample.</t>
         </r>
       </text>
     </comment>
@@ -352,7 +352,7 @@
             <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
-          <t>Used to fill in the 150bp sequence at the right end of the sequencing sample.</t>
+          <t>Used to fill in the sequence at the right end of the sequencing sample.</t>
         </r>
       </text>
     </comment>
@@ -711,14 +711,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>left_150bp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>right_150bp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>BCprimer_F</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -735,6 +727,14 @@
   <si>
     <t>unique_sequence</t>
     <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>left_seq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>right_seq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1426,8 +1426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E6BD156-A4CE-4927-9F1A-802A2FA8AECF}">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1532,8 +1532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1639,25 +1639,25 @@
         <v>6</v>
       </c>
       <c r="C6" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="F6" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="25" t="s">
+      <c r="G6" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="25" t="s">
+      <c r="H6" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="I6" s="15" t="s">
         <v>15</v>
-      </c>
-      <c r="H6" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" s="15" t="s">
-        <v>17</v>
       </c>
       <c r="J6" s="16" t="s">
         <v>8</v>
@@ -1665,11 +1665,11 @@
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="J7" s="1" t="str">
-        <f>CONCATENATE(A7,": ",CHAR(10),"  reference_id: '",B7,"'",CHAR(10),"  left_150bp: '",C7,"'",CHAR(10),"  right_150bp: '",D7,"'",CHAR(10),"  BCprimer_F: '",E7,"'",CHAR(10),"  BClen_F: ",F7,CHAR(10),"#optional",CHAR(10),"  BCprimer_R: '",G7,"'",CHAR(10),"  BClen_R: ",H7,CHAR(10),"  unique_sequence: '",I7,"'",CHAR(10))</f>
+        <f>CONCATENATE(A7,": ",CHAR(10),"  reference_id: '",B7,"'",CHAR(10),"  left_seqs: '",C7,"'",CHAR(10),"  right_seqs: '",D7,"'",CHAR(10),"  BCprimer_F: '",E7,"'",CHAR(10),"  BClen_F: ",F7,CHAR(10),"#optional",CHAR(10),"  BCprimer_R: '",G7,"'",CHAR(10),"  BClen_R: ",H7,CHAR(10),"  unique_sequence: '",I7,"'",CHAR(10))</f>
         <v xml:space="preserve">: 
   reference_id: ''
-  left_150bp: ''
-  right_150bp: ''
+  left_seqs: ''
+  right_seqs: ''
   BCprimer_F: ''
   BClen_F: 
 #optional
